--- a/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
+++ b/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Source:</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>We assume zero leakage for waste management, which is primarily water treatment and cannot be offshored.</t>
+  </si>
+  <si>
+    <t>agriculture</t>
   </si>
 </sst>
 </file>
@@ -285,13 +288,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -598,7 +601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -688,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -700,12 +705,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -1376,7 +1381,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>-3.6275695284159614E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>1.2755958375293723E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1442,9 +1447,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1456,68 +1463,77 @@
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <f>SourceData!G10</f>
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f>-SUM(SourceData!F8,SourceData!F20,SourceData!F21,SourceData!F24)/SUM(SourceData!B8,SourceData!B20,SourceData!B21,SourceData!B24)</f>
         <v>-2.2577713143064896E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <f>SourceData!G11</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>SourceData!G9</f>
         <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f>-SUM(SourceData!F19,SourceData!F22)/SUM(SourceData!B19,SourceData!B22)</f>
         <v>-0.18809980806142035</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SourceData!G18</f>
+        <v>5.884174667079591E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B9" s="10">
         <f>-SUM(SourceData!F3:F7,SourceData!F12:F17)/SUM(SourceData!B3:B7,SourceData!B12:B17)</f>
         <v>3.3536970718348429E-2</v>
       </c>

--- a/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
+++ b/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>Source:</t>
   </si>
@@ -196,6 +196,111 @@
   </si>
   <si>
     <t>agriculture</t>
+  </si>
+  <si>
+    <t>This is always negative.  This is the reduction in U.S. emissions from a sector in response to</t>
+  </si>
+  <si>
+    <t>a $15/ton carbon price.  For our purposes, we are only looking at rebound magnitudes in</t>
+  </si>
+  <si>
+    <t>foreign countries per unit abatement in the U.S., so the specific amount of abatement in</t>
+  </si>
+  <si>
+    <t>the U.S. (or the $15/ton carbon tax that caused it) are not directly relevant.</t>
+  </si>
+  <si>
+    <t>(However, it does mean we are taking a point estimate, as we do for elasticities, when</t>
+  </si>
+  <si>
+    <t>leakage really would be described by a nonlinear function.)</t>
+  </si>
+  <si>
+    <t>Due to higher exports to U.S.</t>
+  </si>
+  <si>
+    <t>In manufacturing industries, when the U.S. produces less emissions, it uses less fuel.</t>
+  </si>
+  <si>
+    <t>The reduction in demand for fuel by the U.S. causes global fuel prices to go down.</t>
+  </si>
+  <si>
+    <t>Other countries use more fuel as a result.  This increases the "carbon intensity" of</t>
+  </si>
+  <si>
+    <t>their economies.  This is the effect being captured in this column.</t>
+  </si>
+  <si>
+    <t>because the reduced supply (from the drop in U.S. production) drives up prices.</t>
+  </si>
+  <si>
+    <t>This reduction in supply is a more important effect than the reduction in U.S.</t>
+  </si>
+  <si>
+    <t>usage of fossil fuels in the extraction industries, to power their operations,</t>
+  </si>
+  <si>
+    <t>which (as with the manufacturing industries) has a tendency to reduce global</t>
+  </si>
+  <si>
+    <t>fuel prices.  So on balance, reducing U.S. production of fossil fuels reduces the</t>
+  </si>
+  <si>
+    <t>carbon intensity of foreign economies.</t>
+  </si>
+  <si>
+    <t>of these goods, the global price of these fuels goes up rather than down,</t>
+  </si>
+  <si>
+    <t>Note that the values in this column are negative for some fossil fuel extraction industries</t>
+  </si>
+  <si>
+    <t>(coal and gas mining).  This is because when the U.S. reduces production</t>
+  </si>
+  <si>
+    <t>This reflects increased production of goods overseas, for export to the U.S. (to make up</t>
+  </si>
+  <si>
+    <t>for part of the reduction in goods produced within the U.S.)</t>
+  </si>
+  <si>
+    <t>In the case of fuels (wood, coal, oil, and gas) and certain types of equipment</t>
+  </si>
+  <si>
+    <t>(transportation equipment, electronic equipment, machinery), this value is negative.</t>
+  </si>
+  <si>
+    <t>Fuels would be subject to a carbon tax whether produced domestically or imported, so</t>
+  </si>
+  <si>
+    <t>importing these fuels does not avoid the carbon tax, hence no additional imports are</t>
+  </si>
+  <si>
+    <t>stimulated.  Equipment that generates emissions when used may also have reduced</t>
+  </si>
+  <si>
+    <t>demand for imports to the U.S.</t>
+  </si>
+  <si>
+    <t>Due to lower imports from U.S.</t>
+  </si>
+  <si>
+    <t>Some goods that previously were exported from the U.S. to other countries are diverted</t>
+  </si>
+  <si>
+    <t>to be used domestically within the U.S.  This results in positive values in this column.</t>
+  </si>
+  <si>
+    <t>Negative values indicate in increase in exports from the U.S. to other countries, which</t>
+  </si>
+  <si>
+    <t>happens for the fossil fuels (coal, oil, and gas), because exporting them avoids the carbon</t>
+  </si>
+  <si>
+    <t>tax, and machinery, whose use consumes energy and generates emissions.</t>
+  </si>
+  <si>
+    <t>How to Interpret Leakage Components from the RFF Table</t>
   </si>
 </sst>
 </file>
@@ -238,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -272,7 +383,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,6 +407,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -599,11 +712,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -677,6 +788,196 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1449,9 +1750,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
